--- a/Python/testes-tempo/HW_C001_120.xlsx
+++ b/Python/testes-tempo/HW_C001_120.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,35 +460,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>bm3d</t>
+          <t>nlm</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>da3d</t>
+          <t>nlmlbp</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
-        <is>
-          <t>ddid</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>nldd</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>nlm</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>nlmlbp</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
         <is>
           <t>nlmglcm</t>
         </is>
@@ -499,28 +479,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19.81360772831505</v>
+        <v>20.34999967148924</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>24.97278000446094</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>26.65393743264426</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>22.64109112371272</v>
-      </c>
-      <c r="H3" t="n">
-        <v>26.1509069501992</v>
-      </c>
-      <c r="I3" t="n">
-        <v>26.64238303319073</v>
+        <v>27.15293009759631</v>
       </c>
     </row>
     <row r="4">
@@ -546,35 +514,15 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>bm3d</t>
+          <t>nlm</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>da3d</t>
+          <t>nlmlbp</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
-        <is>
-          <t>ddid</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>nldd</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>nlm</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>nlmlbp</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
         <is>
           <t>nlmglcm</t>
         </is>
@@ -585,28 +533,16 @@
         <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8342947271115542</v>
+        <v>0.8471939455304265</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.94314718769936</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.955006306933204</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.9090429604734538</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.9500130775117911</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.9571130102859492</v>
+        <v>0.9618166689887121</v>
       </c>
     </row>
   </sheetData>
